--- a/data/PW019.xlsx
+++ b/data/PW019.xlsx
@@ -323,7 +323,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -347,7 +347,8 @@
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.9744897959184"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9489795918367"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,7 +416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
